--- a/remove_listname_vigo.xlsx
+++ b/remove_listname_vigo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\StoreMappingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\git\StreamlitStoreMappingV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2D210-D1E8-4306-879B-F7A9F7833657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21006B33-F655-4C4F-9D93-9E6322195059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{801627D4-7E78-4CF0-8A58-7FE2C650D3DA}"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="12520" windowHeight="10200" xr2:uid="{801627D4-7E78-4CF0-8A58-7FE2C650D3DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="331">
   <si>
     <t>Optional</t>
   </si>
@@ -981,6 +981,54 @@
   </si>
   <si>
     <t xml:space="preserve">Quan ăn </t>
+  </si>
+  <si>
+    <t>giặt sấy</t>
+  </si>
+  <si>
+    <t>nhà thuốc tư nhân</t>
+  </si>
+  <si>
+    <t>nhà thuốc tây</t>
+  </si>
+  <si>
+    <t>nhà thuốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vựa khô đường đậu gia vị </t>
+  </si>
+  <si>
+    <t>tã sữa tổng hợp</t>
+  </si>
+  <si>
+    <t>lan ,mỹ phẩm</t>
+  </si>
+  <si>
+    <t>chuyên bán sỉ lẻ nước ngọt</t>
+  </si>
+  <si>
+    <t>cưa hàng gia dụng</t>
+  </si>
+  <si>
+    <t>phụ liệu tóc nail</t>
+  </si>
+  <si>
+    <t>nhận sửa quần áo</t>
+  </si>
+  <si>
+    <t>chuyên cung cấp các loại sữa</t>
+  </si>
+  <si>
+    <t>tạp hoa gia dụng</t>
+  </si>
+  <si>
+    <t>xe gắn máy</t>
+  </si>
+  <si>
+    <t>ehome</t>
+  </si>
+  <si>
+    <t>thanh pho</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF66CE3B-F583-4DBF-BEE3-00AA8E27DAAF}">
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2863,6 +2911,86 @@
         <v>314</v>
       </c>
     </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
